--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/22_Çanakkale_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/22_Çanakkale_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F275633-D7FB-4C5B-AC09-D8ABE9B37848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6824720E-6A88-4771-B4A0-5EAC5A178FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="648" xr2:uid="{D7945F2D-7956-498A-AC10-3D568B968594}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="648" xr2:uid="{90F1CB78-1E8A-410F-A741-A58474278BEC}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -937,13 +937,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{CCFD8642-CAF3-49C3-A669-8EBD695E5D33}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{255F9188-EEF0-4831-8ECB-B3BB88EB5BA9}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{0E96BA0B-CDFD-4534-BA46-A78AE85FF339}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{A32605EC-B659-451F-9AC3-96BE10B4FF57}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{8875A14D-BFFA-4B2E-849E-FE65C3E50C2A}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{55BCB8F6-15C6-41CB-A420-1EC72FA0DC48}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{C5D10B4E-E7C6-4CCC-8558-5DF6A9B2E142}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{56C99999-1413-4F20-B2EB-053C0F447948}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{9F439675-2E79-4549-A63A-05F20E67C85F}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{C2478A84-CD5B-4730-9361-F10BDF52A91A}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{BF589CD2-A5A7-4157-8267-1CA2A557827F}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{F6703D9D-A67C-4F1F-BE4B-CD1FBE8ADBEA}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{7C2A8217-6FA9-4C44-B4B6-F7D36A3D4371}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{95EE7F06-BC43-4695-ADF7-8B476D0BF298}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1313,7 +1313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4F9C29-68D9-49C5-A96F-72F35F56A0D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6566BC3-8F01-4EDC-A243-539FBD7C1D52}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -2575,18 +2575,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{27425D4E-D5D8-4EE6-BC54-60DA2ACB6802}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{843FDAD4-13DF-44D2-86D1-A24A3F1DF73C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6EAE0F0B-B7A3-464D-8E43-113262967197}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EF5A5AE1-6FFA-4A31-AA57-9EE912788CCC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3AA8841B-1D30-4D17-AF85-F0A6F628CB14}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{08728F9A-792A-4954-A95C-DB0E77C4B596}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{30DB1AC7-A83A-4961-B2AD-40692115417F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E0E59F9B-3716-4448-8928-F1EF58ED05B4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B2179883-85E2-408D-9E81-B5D4240D9CDB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1CC37123-6360-48CF-B580-BBE8A9A35C4F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ECB054FA-1D7E-4977-A264-C38716CAA80E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D4AE9B80-9F75-44DE-BFBA-00EE2D5CD248}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A15FA810-AC12-4EA4-85A7-A1C602C5BF9F}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{336E66E3-5D1E-4720-86CD-2D26D530F55C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{55C8CD59-B68B-49C3-9F69-6B7F967D2167}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{123FAA00-301D-4826-AE58-76E059FCBA08}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F4FA56E2-7034-4FBE-81E2-53BA7FF7EB84}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F359CC95-E29D-4F96-9BFF-A92A633A20E0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A7BC7B85-B246-4D40-819D-858B6E41C71A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2FA57A03-61FD-482D-B2DC-59FA09BCAD87}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{37896353-2575-48A8-9109-028527DEEFED}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D2BECC62-1103-44E2-880E-865F1B0DBFD9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CA8FC022-4A41-4DF8-B1A0-E00AA4B07F6F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EF59AE71-9AFB-4C4B-90EB-F64610C345DA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2599,7 +2599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2396D336-AD7C-404E-A57E-32464C63261C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0D34C2-6D18-4A1B-A9E8-2954A57CE353}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3845,18 +3845,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{00358074-D1A5-4712-B5D2-AEA860AA28BF}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{6EC2AD4A-32ED-4DD9-B889-4C059758EB8F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{749A4145-7959-479A-8751-828841D97802}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3CCE61C9-CD87-4FB3-B16C-DEAAA292B67D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{03CA830A-8E3F-4AB8-B1CE-5B03F468AA08}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E9D38AEA-6AB1-44EB-932F-5F17440049E8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A585C35A-578F-4279-8A0C-36AD3E3615D5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C4A8C8F0-157D-41FD-A099-5C608F73C03A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{323CC9FB-C3D5-4EE7-9D3D-857E41CAB5BC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{01985158-F96A-4564-99F3-B488631BDD74}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EBCBA7A7-4BFF-41FE-913A-73714D9493E2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{19487624-C707-41B4-ABF5-2CB33D2DECEC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A7452261-ECA1-4DA1-9AA4-1CC9531F1451}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{E6469302-0CF3-485D-8763-692CC00870C3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B17EE655-7728-45D8-9401-EF70881EF6EC}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A41A72D0-4D96-4329-A6CF-A0F1483C9F61}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A28EDB00-416D-4D4B-B8E9-C4713F63827D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CC5A492D-39CE-4C25-883C-722693A7BC56}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{564603D0-6CBD-4B8C-8A9E-F0BD075A55E1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BFA3F9A1-44BD-447A-9878-C80AD59DE672}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{457FB65C-C899-4DF3-B16B-CB450C8394EB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CF94F216-DCCC-4313-B9B1-E1F746C4A8A3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2B963B4C-A44C-40D0-A5EA-2F06FAAA0258}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5CAF0FEE-6FE1-42DC-9B9C-CC13699B7E8F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3869,7 +3869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC8E8AD-9011-43F2-ADF6-E1E00FB4B1D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898AD7A2-4C35-4A3B-9B6D-7C1B989B6C13}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5107,17 +5107,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{668AA4DF-4B39-40BE-80EB-DD63617A52AF}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{DF6BD43A-F681-4A2B-94C2-7F7D49D21B46}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{285C49C3-BD58-4FCD-8E7C-4C3626193B66}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B2CE0B13-4DA8-49EC-ADDD-F6AA143BEC44}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9524F2EC-4B81-4850-BBD8-F75E609C0A38}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EFD9CC07-0F92-40E3-A1CD-0C94A8ECA52D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9A741CF6-3C58-4EAD-8FA5-8D97437FE981}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F5433F8F-78EE-4AD1-8BC5-058568ECF769}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{01C78C2C-D7AB-4B20-A4D4-BC5982AC0413}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{132D86B0-4E22-48CA-AAFF-15542274C12A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C1C862D3-1B47-48DF-AF43-2CDFF91628FC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{18192FDF-AEE3-45A4-8A69-78D3E7D62DEE}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{2B173ACE-239D-489B-8ACB-5B71AC984964}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9C480158-4724-470F-8B6A-073F335EACFE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9F56335E-44CA-4C2D-82A4-F29625723096}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5CC47002-8704-4427-A428-A41FD380C656}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{88BB1D79-A5B9-436C-A387-012EA3AB8299}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4D7CF65E-8217-4B0F-89D6-4BF81D508301}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{54DC96E5-F5CE-411C-8AF2-AC11DA702A0F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{756B2BA7-0185-44DB-B3EF-A536BD30B5E0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{580FA50B-4F81-4C76-AF0B-81C3A0CCBF80}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DEEA3BF3-35B9-4042-AC8E-F5D88882139E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5130,7 +5130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06985FF0-655F-4A36-A491-221EFC620383}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65AB676F-95D1-432B-B3F5-35945B401CA1}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6368,18 +6368,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D978FE1C-0A4A-4CB5-8A30-287838E90528}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8C5FCA80-1889-4BE9-92C9-2CCD222190C1}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{086A2826-F0B1-4FC4-9DF0-ABE165A1248E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{55509068-5EF1-4ED3-9D00-440E7EA090FE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{89CDF5A0-B0E2-41A2-AD5A-345FC02A8B19}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7741BE09-74F8-4080-AA15-FD2EB5901D3F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C7C0488F-D73B-475B-8A67-72684859D3A9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{28A8D48F-B41D-4CC9-AF7D-A4EBC31E74A7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3D2DE930-99E7-4EF5-92D1-91F2BF62FD9D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A15B9F02-31A7-4980-85B7-8F163493E372}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5A77EBBF-688C-4668-97DB-88071C0DBF11}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A57541E1-0D40-4BE1-AD22-FF5B27F0C918}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CE53018E-720D-4C2A-A1C4-1773D89B8639}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8637032F-B2B0-4184-8CEE-C06D34337D9E}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{A860D737-19C6-44A6-B1BE-B5158FB51361}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8F93375E-5904-442B-9DAB-7C780317DA79}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4E38283A-65FA-479D-B177-52FF55FCE3F1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{20226541-2290-42FC-AACB-50E553C4DA11}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8E2BB58A-EB62-4E32-8D39-B34F111B0C1B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{581274F4-E4C5-4090-B4C3-D17E13772F01}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D586ACAC-8A95-42D9-9A55-983D39E851D7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{66B860FF-D32F-4BB9-961E-6202516CA4BB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E434A68D-0BC8-41F5-AD5C-5F12EDEF0E31}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F36385EF-3C6C-4687-941C-35FA69F8CEE7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6392,7 +6392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1CE9011-06FD-431A-8020-AB373E1E4203}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33727A13-3C9E-4CE6-88B2-2E61792D33DA}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -7654,18 +7654,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7C5A2A23-697F-4733-B388-F1BC7D0FBBDF}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{6CCDBCA8-EF7A-4287-B81E-7A41B3610DF8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{65BFA145-A61F-4EDA-8A00-516789B7A91D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B0D11DFE-4DEC-4006-9466-B0F8F3879FDB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C7AC9C9A-EFDE-4CC6-98E5-5514550741A6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{724414D4-6B22-48B8-B469-2EDD8A605737}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1292E61F-F243-42F9-9F23-789D8E4FA67A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D8F26EF1-D0D0-47F4-B794-23CEA810F7A1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B39F8A71-CD02-461B-9E34-5314BF6A62E4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B5E42757-D2F0-46CD-A8B0-BE047884B713}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3752F387-9207-4AC3-970B-882BB0E60DE0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F4897942-906A-4BE4-A3C7-E14C2E840FEE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A28248ED-B717-45C5-9EDE-CFEC64C1B27A}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{3FB16683-CB0B-46A8-A1E7-1119623F8E92}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{29B8908D-3AD9-40BF-B2A6-8B024A748B9F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B9374A62-BDED-4BA5-BAA8-2D38EFE7BD8F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{96970C47-FB91-4453-8A38-34A6343ECB02}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6AC6461E-90B9-4907-B20A-6EE53DAD253E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{89463F83-1050-4474-9484-416293056E65}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7A9CA3A4-23CC-4568-AB38-7B3505786EA7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{118C360B-4E03-4C3D-977F-41D774B2F848}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B6BFABBC-D1C4-49D5-B45A-49D63E27C8B4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A004EE9D-B038-44BE-B35F-E16A22F32EA7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C1D671BB-7A12-4D43-A85F-7408697E7C19}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7678,7 +7678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8E23CC-6018-4609-9778-65CFD92920D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF42DF05-48F0-43C3-8BF9-F94EA7B45B57}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -8936,18 +8936,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1A06CDBE-C9F1-4DCA-8B55-AFB62A16FC20}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{D8DB4C21-C2C4-43AF-8E88-333C955F0A93}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9B35023D-2DF1-4EF8-B49F-218E2EF0A63F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CDF25583-38E4-46A7-A2CC-33DD5749002A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3BDD1182-C8AB-454C-9891-D6B013418572}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5D36A33E-81A7-4549-A13D-7D0C36B04CD0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0207934C-DB80-451C-9EDC-962FE2C53433}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8C66BCA9-E1B0-4B9A-8249-F4FD3671E99A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1C9D8804-B0D9-4C1F-8F90-BA7F8E479101}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0F45545D-A08B-49A5-953C-8C3A4670B4F3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C967E439-2F5E-4FCD-9D67-F3200E8C38B9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8A8AA88D-E64E-46A0-A512-380643F28351}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{05DFBEFE-003C-4377-BABB-812873790C05}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{8882BEE9-6ED2-4441-A078-EF611E39959E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C492826C-5AEF-4460-97D5-23D799B55B56}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C149E889-CE5B-43FF-8555-E5B87A14361A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2AC70FFF-EC22-4B11-AD43-1A86AE40D96F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{62F6BDD6-4E2D-481A-8B80-D46E187C12A6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{900D5109-9428-45A3-93B9-59E241CA27C7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2086E6F7-96B3-44AB-8ABA-8F44F25A5486}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1F5B3AA1-42D8-4D0D-9942-E231DCA91C11}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AA7D9A31-5789-42B0-AD40-4E52E8005E82}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B7792420-9FB7-4913-9359-0287A0C0B9AF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E8DBC6CF-AD88-4A25-825C-125946D579A5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8960,7 +8960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27068AFB-B3C7-4441-A838-1CD528F1D9CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3763A7E8-741B-4B1E-AE48-16159EA3674E}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -10218,18 +10218,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{31E485A8-7A02-4C68-9E05-0ADC73ED4162}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{1D7DBF60-8294-4F9D-AA3E-E1EE8CEA95A0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{53857609-631A-4341-A277-F36C4726336E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{534A0B89-E2C6-4083-80D2-C5D946DE5E72}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E12DE65F-7F32-4B7A-957D-C821E316E8D0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0A068B7D-1F7E-4357-AA05-5E4FB335BA1E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0D8822B0-960C-4FC7-A8B8-7E06DD60086E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C9EA1251-AC5F-4DCC-96EE-97A4827A55D3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{784F1D43-0692-4E68-9672-12EAB0B2A638}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0F542B10-897E-4BE9-AD0B-EE6013E06056}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5AE3C0F4-03B9-45BC-80DA-F7059935EF81}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{87078973-BB47-43F8-8631-02A1C320E853}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1836CC79-D272-4623-A0B5-C3ACF9CE0267}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{9D570C5E-F662-4E86-8FC8-A9B255DCB82E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{91C4C51C-8D04-4805-B8E4-5B541B8E7E16}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3DB82F5C-B357-4788-B2DA-DE6D91BD40A7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7ACD7AD4-F24E-4465-A2B8-7F2AF3F7C3BE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1CC6C6BC-4405-4988-AA0C-CACA6D7D1D01}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C2E92D65-3CCC-4F8C-8CA4-799E6BBF0F02}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8CE2B1F6-B1ED-478B-A7DF-0AB8A1F3B637}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5399ED55-CF0E-4D66-A248-A35545583D17}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BD9B07F3-3AF5-4E50-9581-385647210CF2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EA4670DE-7B7C-46F9-A0BD-257FD090587B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5484F6A2-19F6-4B95-9551-5A1651D185F7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10242,7 +10242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA82800-5C68-4EDC-815C-7D724BEEBF41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320D1826-252E-472D-B3F6-36B8E050B6EB}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11500,18 +11500,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9493E098-F3A9-40E0-85A5-66C77C650A3B}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{9863B716-692B-495F-9970-E497AD14DF4D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A2754CB8-CAC8-444D-B938-AA87A7DF2576}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7D4957BF-F448-41A9-AFB4-C9607289E180}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A802ADE0-468A-4230-B458-63DEDF02640D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0C461A9E-7FAC-4B0B-9D31-FC863DA7AFDC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C8397965-04E9-4679-83E5-01D4AADE5D79}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{564A0253-7268-459B-AFA7-0F4FEB438A94}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CA31E384-B536-41A2-B5A9-0A65EF5737C1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AF0FA75A-A9C9-4A95-8401-478D66F8A799}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A3651C20-5CAF-4132-BBCB-0315EB162709}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{030018E8-A759-49AC-8E83-8BE8ACAA9CD4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AF886BA8-2A83-46F8-BC3F-91C0591F3065}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{98E8C038-4EDD-4CF7-9F00-20E1D29B6DC7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{021084AA-9EF6-47C8-A6E8-A6015ECA6875}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0CFFE0CB-2082-450F-8E9C-7EE6515EFB31}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1903B0A8-D5C5-4F88-B84A-E471D3C212A9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AD1C2BFD-2BC9-4C85-9752-ED1BA92F8FEA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8D73D648-054C-487B-A506-81CD88A3B7A6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9F7DFC84-95D0-4852-AFE1-9F403DEF4ACA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CCED4670-8C05-4CDE-B093-D0C517FE1135}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ECF009DA-CC2B-4BF9-A115-03AF7234E5DE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{36C300E3-EC12-41BA-9398-91CBA0570479}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6CA8394F-BD46-4910-8A31-3BC25A5BBEC5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11524,7 +11524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714A7D50-D61E-40E3-A618-F58D0814F6A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F97133-6501-4A02-B5CB-B937838E3F1B}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -12774,18 +12774,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9D4FD009-64C2-4FAF-BB1D-0349EE6CF54A}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{5E2DC594-3ECF-4C7F-8217-BFCB06CAB611}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3C18AEB9-3D5F-44B8-8E7C-737CD646E62C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0853F2AB-DCB6-4B02-8811-D8A3D80BF645}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{59FB05D5-58AD-4873-A2C8-23CFCB27638B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E68EFD95-AA7F-4DDD-8736-8AA6CBD1914F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8920E6F6-A6A4-44D5-9ECC-641844B8CB56}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{97BF2769-B11E-40A1-8659-E75406046E5E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0EEAE86B-7419-46EB-8E3C-0153214127A9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DA61EDE4-1BFE-46AA-A59A-64D36805345C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A351D4C3-F771-47A1-B0AD-E820ABB5B646}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{363BFB93-9CEE-467E-9CE2-AFECD6CD5F67}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B6971DC3-9064-4F26-8D86-503257944788}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{094AF312-2798-4082-9CEF-247A4C6B1392}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{90F55DFC-CEFC-4CCE-9875-E59AC8ACE5E4}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DC269C66-88AF-48C4-A0B0-AF6B4AD7087C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{82274F21-247D-4B74-A836-41AAC80D47EF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F02A266F-4973-4BF4-9585-337BABA7A9AB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8D9280E7-EB49-496E-B3D1-882A41F5E41F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5DCFB7CA-2BAC-4E46-BD62-692EFF7EBD1A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A7C6B77F-4679-495C-B899-34E159590B92}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{856D0642-B041-4938-B5EC-C61DFFF8A9FA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{99002503-EC9F-4025-AB6D-51CCAF7DF7A3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EA3B8643-E66D-464A-A697-427CFA8C4CCD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12798,7 +12798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30BC2A6-B111-430D-B4F8-965BA4295D9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA49FF9-07F1-4EEF-8961-988976B7C646}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14048,18 +14048,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5B4463B5-7012-4D9D-8E55-EB17F8D8C68C}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{B9A47D83-E29D-4CD4-AE7A-6AD82FAB3FDF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C0D30B35-6042-424E-9E44-DD2C13ACCB98}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{631840CF-6439-4DB1-BAC8-F7DEDA4829AC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A7B45DF9-F2A7-4B58-AEB3-D1102549329A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{84DEF0B2-489D-4EF0-A9A7-D4C3CF585A33}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B12892EA-EFF5-4A87-B637-E92777CEC147}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{12C31C2F-7B66-42C7-9CED-49A0B5B52543}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2A0443BE-D973-4C1B-8E1C-0B7905C4FBBA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5B72C62C-1277-45F1-B713-91EF2AF39AB2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1142F0AE-E79F-41A3-94A4-8D84EF78CEAA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CC6A624E-576A-48C2-8FC4-45EC4D34256B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B6BE6B6C-376F-4C6B-9209-1A6F027A80D3}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{799C601A-FB27-4C26-A925-2FF15691A486}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D5E796BB-31FA-4443-8E1B-EB3DE95F8668}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BFB933DE-C061-4138-A8A0-71DD7C9D4CC7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{36A9C842-BCA3-4C4C-8D59-573B9B9F9EEA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DAB98894-D318-46F0-84A2-57FD9B0D012D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B16402B9-18EE-40DE-8B82-88EA17B3E8ED}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{41C8CDBD-E760-40C5-8D69-321525D52B31}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5575E7C6-4227-4860-A80F-7E8A384EFD33}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{49EB37FE-8353-4A48-9E97-B3654567353E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6589D19C-AE0B-4E10-B4E2-F1A134653B57}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C450903E-0BC0-4BB3-9F8A-3B9843919F41}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14072,7 +14072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B645FB-7224-416C-86DF-BB7331755FAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B08EBC-0A13-45CA-9ABF-714B39002969}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15322,18 +15322,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{83D0B26E-F847-4F52-AD46-D7593CDEC739}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{7F23F8EE-99E8-4350-AA18-9CAA9C70CA3D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4145529C-B19F-4002-85A9-DCDA97AD345E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A4A08EC4-26D3-41FF-86D9-8078E06D66F9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{20703000-C898-4954-A804-C6D8F20892E0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{71FADBC9-E1DB-4E2A-A354-DA92C36AAC8D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{199A74D3-27ED-4FA6-9D22-4E3AF02380A2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{569F4971-8D04-4459-92D6-EFB7D034D397}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7DFB99E1-1A57-41E7-B2AD-A309865B297A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E3D62990-A0D3-4955-9FAB-5EBBCB6629E4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{74F0ED7E-FBF9-4E20-B746-ECEA598B6631}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6B6332F7-6394-4F7B-B84D-1F85E8D348A3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C8A0ED73-BE17-4395-A05A-483C6726A45F}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{D534EE69-DDBF-4BE3-B54A-A74BC792A7A1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{132E9F71-483B-434B-BFD3-44E23090F403}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DEF78A94-F368-4076-AB39-5C7A970AA63D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{85EC9579-85A1-41DB-BFC6-B430AC9C6360}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EFB7449F-ECD4-48AF-8D86-CA7750AAF07D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DCDA1EA3-2F77-4608-AEEC-3B4ABE03E4CA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6E0887CC-2B06-411D-9830-C93BD1AE156E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{71D08E0B-C796-40B9-82B2-91FDB912A7F5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5C676334-5345-4C24-A171-56F5A86D3C1A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B6AA9560-59B9-4ECC-88C7-415427537A5D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{56F792FC-6BF7-444F-9E68-6E417B0A7998}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15346,7 +15346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585AA275-5A45-4AB7-A488-5F50871DFEBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B350FFD7-197F-4873-82A8-E14F26E23135}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16596,18 +16596,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EDD96CD0-6966-460B-8386-C08D9C9AABAF}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{9364313B-417F-4A0B-ACEE-F91FDB7DB525}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AB8DD92D-C707-4A59-8103-BE4DB9F9755E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{61633D0A-1F66-4488-9F95-7BF5E091604D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1270B036-3103-418C-A2A7-7780DB059E4B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{92F8F2DC-E8E5-49A0-BA9E-8BB46FAF2C05}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{068D3133-F8F6-4F73-B4CD-D1163BEBF129}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8AD74EDC-8E8D-4B2C-AE71-81F4052588F8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5FA7AEDD-126F-4CDE-BED1-00FB800FB0BD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{20D908AA-B4D6-44E8-9C1A-42262A3550E2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1632A575-F675-492A-A988-34AD75A3D1F2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{77357809-7A13-4399-B3F2-3A6355370FDE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F72CF3EA-9F28-4709-A2B4-01C00CE17AD7}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{EA6DD0ED-28FD-4213-82EA-A4329E8291D5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CD8D59DC-BCA0-4A50-9416-97265BB96AC2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{86CDEB25-0E98-4958-B330-1EFBA6EF2743}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{65DE1311-B5E5-4EDA-8F53-E6F98452E5E6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CF4FE219-4950-4FB4-9C57-E3DB0A138CA9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E12EC2DA-8EF3-4A65-B7AF-4D31C6607E8D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{69406F5E-AEAC-4322-B5A6-5963DD72E705}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{362D733B-2E9F-4839-AAC5-FA39B3C3EFB8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1F6628AB-DC10-4CDC-85AC-FA689FADC342}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1572854B-9EA7-47E7-8FD5-A83A3C151EF1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BC07A46C-7DFA-4430-8254-6BD86F3F87F6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
